--- a/Imag/gumbel_barnett/resultados.xlsx
+++ b/Imag/gumbel_barnett/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02617133141583805</v>
+        <v>0.07669785224196256</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01154564040044613</v>
+        <v>1.190609499920928</v>
       </c>
       <c r="D2" t="n">
-        <v>8.550534291786571</v>
+        <v>0.5360997302938889</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.4445755183816607, 19.570425482713016)</t>
+          <t>(1.2504824807922899,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.4445755183816607, 19.570425482713016, 0.01154564040044613, 8.55053429178657)</t>
+          <t>(1.2504824807922899, 1.1906094999209285, 0.5360997302938889)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352FE50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCDAB0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02989685196965214</v>
+        <v>0.1058996500440819</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.09800592979767089</v>
+        <v>1.239438847985303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.284222188874555</v>
+        <v>0.5399638639461415</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(4.88808081397968,)</t>
+          <t>(6.64448183849685,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(4.88808081397968, -0.0980059297976709, 0.28422218887455497)</t>
+          <t>(6.64448183849685, 1.2394388479853033, 0.5399638639461415)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352E3E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A1F60&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +568,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03456329692778817</v>
+        <v>0.1065473976716323</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6878237809739951</v>
+        <v>1.289150147303034</v>
       </c>
       <c r="D4" t="n">
-        <v>1.886232447393939</v>
+        <v>0.6443187275629151</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.31100340903636836,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.31100340903636836, -0.6878237809739951, 1.8862324473939387)</t>
+          <t>(1.2891501473030342, 0.6443187275629151)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352E560&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A01F0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03644621942954714</v>
+        <v>0.1107453077193014</v>
       </c>
       <c r="C5" t="n">
-        <v>1.014675884095939</v>
+        <v>-182.1651583159089</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5125422639395969</v>
+        <v>25.2029219315223</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.04269785833712646,)</t>
+          <t>(1450.183410360131,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.04269785833712646, 1.0146758840959391, 0.5125422639395969)</t>
+          <t>(1450.183410360131, -182.16515831590885, 25.202921931522297)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352F790&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A032462F0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +646,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06588834718236555</v>
+        <v>0.1213384899593217</v>
       </c>
       <c r="C6" t="n">
-        <v>1.264383309904246</v>
+        <v>0.2588478663503805</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5286990413565703</v>
+        <v>5.055212994251603</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.2845816737898543,)</t>
+          <t>(1.7274332531075398, 6.763479776049865)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.2845816737898543, 1.2643833099042459, 0.5286990413565703)</t>
+          <t>(1.7274332531075398, 6.763479776049865, 0.2588478663503805, 5.055212994251603)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352F1C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCCD90&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +685,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.07893727368878339</v>
+        <v>0.1370835318475781</v>
       </c>
       <c r="C7" t="n">
-        <v>1.258434293320584</v>
+        <v>0.1321065054188568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5616789533624368</v>
+        <v>0.3855871476381656</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(10.778479955780963,)</t>
+          <t>(3.0007390642261473,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(10.778479955780963, 1.2584342933205843, 0.5616789533624368)</t>
+          <t>(3.0007390642261473, 0.13210650541885682, 0.3855871476381656)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352CE20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCFE20&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +724,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09042918452706727</v>
+        <v>0.1390157924425377</v>
       </c>
       <c r="C8" t="n">
-        <v>1.291293486882969</v>
+        <v>0.9976880585789809</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6219362667368237</v>
+        <v>0.5139095513905632</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(0.011830532487583612,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.2912934868829693, 0.6219362667368237)</t>
+          <t>(0.011830532487583612, 0.9976880585789809, 0.5139095513905632)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352E680&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCDE10&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -763,31 +763,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09776709618443911</v>
+        <v>0.1394723764434859</v>
       </c>
       <c r="C9" t="n">
-        <v>-154.1572192180686</v>
+        <v>-0.4766426234033372</v>
       </c>
       <c r="D9" t="n">
-        <v>21.87184390193215</v>
+        <v>1.655831287921619</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1221.4842487366473,)</t>
+          <t>(0.3603852132332136,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1221.4842487366473, -154.15721921806858, 21.871843901932152)</t>
+          <t>(0.3603852132332136, -0.4766426234033372, 1.655831287921619)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352F490&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCCBB0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,17 +802,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.908929789954892</v>
+        <v>0.366508418593731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1193626792182857</v>
+        <v>0.2970109568053262</v>
       </c>
       <c r="D10" t="n">
-        <v>3.437098965846198</v>
+        <v>0.9921391904977079</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -821,12 +821,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.1193626792182857, 3.437098965846198)</t>
+          <t>(0.29701095680532624, 0.9921391904977079)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352FEB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCF9A0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +841,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9304574039898774</v>
+        <v>0.3665084191782202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1193626792182857</v>
+        <v>-134217727.702989</v>
       </c>
       <c r="D11" t="n">
-        <v>1.171930807664684</v>
+        <v>134217728</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(135281148.38640654,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.1193626792182857, 1.1719308076646837)</t>
+          <t>(135281148.38640654, -134217727.70298904, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352EE30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A0070&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -880,31 +880,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.930457410243601</v>
+        <v>0.6202750405618613</v>
       </c>
       <c r="C12" t="n">
-        <v>-134217727.8806373</v>
+        <v>0.2970109568053262</v>
       </c>
       <c r="D12" t="n">
-        <v>134217728</v>
+        <v>3.320815261740754</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(114527008.10337678,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(114527008.10337678, -134217727.88063732, 134217727.99999999)</t>
+          <t>(0.29701095680532624, 3.3208152617407545)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352C3A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCEB30&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03448011000294143</v>
+        <v>0.03826130253562762</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1776853431431822</v>
+        <v>-0.05705055254272418</v>
       </c>
       <c r="D2" t="n">
-        <v>161878.7122461763</v>
+        <v>1.158158571706212</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(2.7329103741987186, 418539.4144357735)</t>
+          <t>(0.43471059184562055,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(2.7329103741987186, 418539.4144357735, 0.17768534314318218, 161878.71224617626)</t>
+          <t>(0.43471059184562055, -0.057050552542724176, 1.158158571706212)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F753446DA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4F010&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +1029,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03449763667344961</v>
+        <v>0.04347344651380509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1772617762358846</v>
+        <v>0.946001266365851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3861299012585246</v>
+        <v>0.4134879803294575</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(2.738053387719802,)</t>
+          <t>(-0.06511597380893218,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(2.738053387719802, 0.17726177623588463, 0.38612990125852464)</t>
+          <t>(-0.06511597380893218, 0.946001266365851, 0.41348798032945755)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7534447C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4D330&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03865179285850458</v>
+        <v>0.04924682019673106</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.09287849780026741</v>
+        <v>0.1775263619142491</v>
       </c>
       <c r="D4" t="n">
-        <v>1.189412382945247</v>
+        <v>0.2989827919907629</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.47187228361837036,)</t>
+          <t>(3.466210503067912,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.47187228361837036, -0.09287849780026741, 1.1894123829452468)</t>
+          <t>(3.466210503067912, 0.1775263619142491, 0.29898279199076294)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7534442E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4F9A0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +1107,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05116483917308601</v>
+        <v>0.06182694999395155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9278289282273648</v>
+        <v>0.2088423727271072</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4559577237155492</v>
+        <v>7.000488455745614</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.08981965288102399,)</t>
+          <t>(2.76995615813173, 16.516036639497596)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.08981965288102399, 0.9278289282273648, 0.45595772371554916)</t>
+          <t>(2.76995615813173, 16.516036639497596, 0.2088423727271072, 7.000488455745614)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F732CD5C60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4C7C0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +1146,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.21536398824808</v>
+        <v>0.2014022650325894</v>
       </c>
       <c r="C6" t="n">
-        <v>1.159498260132734</v>
+        <v>1.132069300797895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5236253910041875</v>
+        <v>0.4737451786905832</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(5.974473813531024,)</t>
+          <t>(1.2636777208051408,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(5.974473813531024, 1.1594982601327337, 0.5236253910041875)</t>
+          <t>(1.2636777208051408, 1.1320693007978948, 0.4737451786905832)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F753444CA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4F1C0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.269035348996847</v>
+        <v>0.2520919943117084</v>
       </c>
       <c r="C7" t="n">
-        <v>1.234507581953087</v>
+        <v>1.213862328631095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6395437574036904</v>
+        <v>0.5522162963112791</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1204,12 +1204,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.2345075819530866, 0.6395437574036904)</t>
+          <t>(1.2138623286310948, 0.5522162963112791)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F732CD7220&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4F0D0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +1224,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2699519467009653</v>
+        <v>0.2520938459294506</v>
       </c>
       <c r="C8" t="n">
-        <v>-145.4239167291773</v>
+        <v>1.213864165676394</v>
       </c>
       <c r="D8" t="n">
-        <v>21.05008930199591</v>
+        <v>0.5522164532053366</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1061.2868643233357,)</t>
+          <t>(325910056.73591876,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1061.2868643233357, -145.42391672917734, 21.050089301995914)</t>
+          <t>(325910056.73591876, 1.2138641656763944, 0.5522164532053366)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7534458D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4EF20&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +1263,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3282593701521992</v>
+        <v>0.2554608810879229</v>
       </c>
       <c r="C9" t="n">
-        <v>1.15246514474346</v>
+        <v>-196.19184440263</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5245034427564984</v>
+        <v>25.80030366876124</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1.2303285483556312,)</t>
+          <t>(2103.9044445488253,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.2303285483556312, 1.1524651447434597, 0.5245034427564984)</t>
+          <t>(2103.9044445488253, -196.19184440262995, 25.800303668761238)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F732CD7130&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AABF3A0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,31 +1302,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7794789972329965</v>
+        <v>0.5720977901874132</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.7678619</v>
+        <v>0.2742848035135171</v>
       </c>
       <c r="D10" t="n">
-        <v>134217728</v>
+        <v>2.418839978243844</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(133900457.62492312,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(133900457.62492312, -134217727.76786187, 134217728.0)</t>
+          <t>(0.27428480351351714, 2.4188399782438443)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F753444A00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4FE80&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7794789995085588</v>
+        <v>0.65596706636332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2321381342633245</v>
+        <v>-134217727.7257151</v>
       </c>
       <c r="D11" t="n">
-        <v>1.002369447689762</v>
+        <v>134217727.9999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(142849020.88791606,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.23213813426332447, 1.0023694476897622)</t>
+          <t>(142849020.88791606, -134217727.72571513, 134217727.99999993)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F732CD71C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AABFD30&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1380,17 +1380,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.317047052637649</v>
+        <v>0.6559670746464705</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2321381342633245</v>
+        <v>0.2742848035135171</v>
       </c>
       <c r="D12" t="n">
-        <v>3.886262163732316</v>
+        <v>0.9395775251175776</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.23213813426332447, 3.8862621637323165)</t>
+          <t>(0.27428480351351714, 0.9395775251175776)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7534461D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4CA00&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,31 +1490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04527227825566944</v>
+        <v>0.04379176958826526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.173279131317421</v>
+        <v>-0.06230094509983489</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4164295257112118</v>
+        <v>1.110828287350279</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(2.3461293023284293,)</t>
+          <t>(0.5438762820089242,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(2.3461293023284293, 0.173279131317421, 0.41642952571121183)</t>
+          <t>(0.5438762820089242, -0.062300945099834894, 1.1108282873502786)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352C3A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA9E40&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1530,31 +1530,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04905546445701241</v>
+        <v>0.04563680012881327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1840036168570344</v>
+        <v>0.8612072278580338</v>
       </c>
       <c r="D3" t="n">
-        <v>339432535.1604329</v>
+        <v>0.4630469124492264</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(2.19761545768059, 765941698.3659636)</t>
+          <t>(-0.18444157254306506,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(2.19761545768059, 765941698.3659636, 0.18400361685703437, 339432535.1604329)</t>
+          <t>(-0.18444157254306506, 0.8612072278580338, 0.4630469124492264)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F74CD31FC0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA90C0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1570,31 +1570,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0686662132777008</v>
+        <v>0.05684174821356027</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.08488796771036158</v>
+        <v>0.1029064131883988</v>
       </c>
       <c r="D4" t="n">
-        <v>1.090626523301641</v>
+        <v>0.4467760256993359</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.4993050881449022,)</t>
+          <t>(2.5154560241325044,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.4993050881449022, -0.08488796771036158, 1.0906265233016406)</t>
+          <t>(2.5154560241325044, 0.10290641318839884, 0.44677602569933594)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F74CD32D10&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EAADA0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1610,31 +1610,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07950077474023903</v>
+        <v>0.05770712919305487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8440929141753479</v>
+        <v>0.1056453663937804</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4374694927579256</v>
+        <v>6021994737.291796</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.11322626519873158,)</t>
+          <t>(2.4706034300383406, 13238242610.431355)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.11322626519873158, 0.8440929141753479, 0.43746949275792557)</t>
+          <t>(2.4706034300383406, 13238242610.431355, 0.10564536639378042, 6021994737.291796)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773C4E440&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA8520&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1650,31 +1650,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1136836517074846</v>
+        <v>0.1256416763805289</v>
       </c>
       <c r="C6" t="n">
-        <v>1.029528998114165</v>
+        <v>1.050581130883951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4989776151070023</v>
+        <v>0.4769683121442963</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.1471747129241896,)</t>
+          <t>(2.8850250671270095,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.1471747129241896, 1.0295289981141647, 0.49897761510700234)</t>
+          <t>(2.8850250671270095, 1.0505811308839514, 0.4769683121442963)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352EE90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA8640&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1690,31 +1690,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.140404489984338</v>
+        <v>0.1495231584463368</v>
       </c>
       <c r="C7" t="n">
-        <v>1.060182001303411</v>
+        <v>1.020160228977468</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4704081665069426</v>
+        <v>0.5176879547140103</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(4.406764731049389,)</t>
+          <t>(0.942352193082058,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(4.406764731049389, 1.0601820013034113, 0.47040816650694256)</t>
+          <t>(0.942352193082058, 1.0201602289774685, 0.5176879547140103)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773C4C040&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0A9B6B60&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1734,13 +1734,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2019096842848542</v>
+        <v>0.2549365054709196</v>
       </c>
       <c r="C8" t="n">
-        <v>1.150288676804072</v>
+        <v>1.226760888762046</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6634648001856408</v>
+        <v>0.7579710122112564</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1749,12 +1749,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.150288676804072, 0.6634648001856408)</t>
+          <t>(1.2267608887620463, 0.7579710122112564)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F74CC185E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EAAC20&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1774,27 +1774,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2283373428216757</v>
+        <v>0.2665108863289503</v>
       </c>
       <c r="C9" t="n">
-        <v>-225.368861113456</v>
+        <v>-300.0295558203825</v>
       </c>
       <c r="D9" t="n">
-        <v>29.93868149728677</v>
+        <v>38.75635105323256</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1932.7202321911473,)</t>
+          <t>(2376.1310816627447,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1932.7202321911473, -225.36886111345603, 29.938681497286765)</t>
+          <t>(2376.1310816627447, -300.0295558203825, 38.756351053232564)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F74CD32CB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA8610&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1814,27 +1814,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6355799242329772</v>
+        <v>0.4064577806101237</v>
       </c>
       <c r="C10" t="n">
-        <v>-67108863.7832242</v>
+        <v>-134217727.8460878</v>
       </c>
       <c r="D10" t="n">
-        <v>67108863.99999999</v>
+        <v>134217728</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(71888525.7716928,)</t>
+          <t>(125104060.37118883,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(71888525.7716928, -67108863.7832242, 67108863.99999999)</t>
+          <t>(125104060.37118883, -134217727.84608781, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77352DF00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EABAC0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.635579927842939</v>
+        <v>0.4064577807914037</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2167757970252944</v>
+        <v>0.1539121809477089</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9335128797787777</v>
+        <v>1.072848707814337</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.21677579702529443, 0.9335128797787777)</t>
+          <t>(0.15391218094770895, 1.0728487078143374)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773C4EDD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EAA860&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.712471939531091</v>
+        <v>0.867411637568399</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2167757970252944</v>
+        <v>0.1539121809477089</v>
       </c>
       <c r="D12" t="n">
-        <v>4.980679287909678</v>
+        <v>4.65479027390059</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.21677579702529443, 4.980679287909678)</t>
+          <t>(0.15391218094770895, 4.6547902739005895)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F74CD31630&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA8580&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/gumbel_barnett/resultados.xlsx
+++ b/Imag/gumbel_barnett/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07669785224196256</v>
+        <v>0.004738317130101841</v>
       </c>
       <c r="C2" t="n">
-        <v>1.190609499920928</v>
+        <v>-2.832254738507977</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5360997302938889</v>
+        <v>8.745190482398661</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(1.2504824807922899,)</t>
+          <t>(0.2487397042199996,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(1.2504824807922899, 1.1906094999209285, 0.5360997302938889)</t>
+          <t>(0.2487397042199996, -2.832254738507977, 8.74519048239866)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCDAB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F6140&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1058996500440819</v>
+        <v>0.004774651028511193</v>
       </c>
       <c r="C3" t="n">
-        <v>1.239438847985303</v>
+        <v>-0.2149354431043374</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5399638639461415</v>
+        <v>0.8049418582388241</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(6.64448183849685,)</t>
+          <t>(7.953494541081938,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(6.64448183849685, 1.2394388479853033, 0.5399638639461415)</t>
+          <t>(7.953494541081938, -0.21493544310433743, 0.8049418582388241)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A1F60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CFA60&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +568,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1065473976716323</v>
+        <v>0.004778021180422219</v>
       </c>
       <c r="C4" t="n">
-        <v>1.289150147303034</v>
+        <v>5.210485959214406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6443187275629151</v>
+        <v>1.944046859896792</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(0.0836162388271153,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(1.2891501473030342, 0.6443187275629151)</t>
+          <t>(0.0836162388271153, 5.210485959214406, 1.9440468598967922)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A01F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CF1F0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1107453077193014</v>
+        <v>0.004803757285581362</v>
       </c>
       <c r="C5" t="n">
-        <v>-182.1651583159089</v>
+        <v>0.00873048987646027</v>
       </c>
       <c r="D5" t="n">
-        <v>25.2029219315223</v>
+        <v>112.8686525442697</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(1450.183410360131,)</t>
+          <t>(6.966678378467374, 120.30152149230757)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(1450.183410360131, -182.16515831590885, 25.202921931522297)</t>
+          <t>(6.966678378467374, 120.30152149230757, 0.00873048987646027, 112.8686525442697)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A032462F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CEFB0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +646,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1213384899593217</v>
+        <v>0.008660678639843508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2588478663503805</v>
+        <v>6.099675416511769</v>
       </c>
       <c r="D6" t="n">
-        <v>5.055212994251603</v>
+        <v>2.099821247775862</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.7274332531075398, 6.763479776049865)</t>
+          <t>(13.894975884399626,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.7274332531075398, 6.763479776049865, 0.2588478663503805, 5.055212994251603)</t>
+          <t>(13.894975884399626, 6.099675416511769, 2.0998212477758615)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCCD90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CD330&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +685,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1370835318475781</v>
+        <v>0.01030242662323945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1321065054188568</v>
+        <v>6.187168639548881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3855871476381656</v>
+        <v>2.267523425242417</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(3.0007390642261473,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(3.0007390642261473, 0.13210650541885682, 0.3855871476381656)</t>
+          <t>(6.187168639548881, 2.2675234252424175)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCFE20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144E4BB0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +724,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1390157924425377</v>
+        <v>0.01035780611069875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9976880585789809</v>
+        <v>6.095089475265539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5139095513905632</v>
+        <v>1.905692851729109</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(0.011830532487583612,)</t>
+          <t>(1.2414144978495245,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0.011830532487583612, 0.9976880585789809, 0.5139095513905632)</t>
+          <t>(1.2414144978495245, 6.095089475265539, 1.9056928517291087)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCDE10&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CD510&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -763,31 +763,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1394723764434859</v>
+        <v>0.01087175454040736</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.4766426234033372</v>
+        <v>-772.3542326978541</v>
       </c>
       <c r="D9" t="n">
-        <v>1.655831287921619</v>
+        <v>102.33306067027</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(0.3603852132332136,)</t>
+          <t>(2014.7529140550241,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0.3603852132332136, -0.4766426234033372, 1.655831287921619)</t>
+          <t>(2014.7529140550241, -772.3542326978541, 102.33306067027002)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCCBB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CD180&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,17 +802,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.366508418593731</v>
+        <v>0.1006191912966915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2970109568053262</v>
+        <v>1.321564887574315</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9921391904977079</v>
+        <v>13.04095483523907</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -821,12 +821,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.29701095680532624, 0.9921391904977079)</t>
+          <t>(1.3215648875743151, 13.040954835239067)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCF9A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CFD90&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +841,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3665084191782202</v>
+        <v>0.1217457971143589</v>
       </c>
       <c r="C11" t="n">
-        <v>-134217727.702989</v>
+        <v>1.321564887574315</v>
       </c>
       <c r="D11" t="n">
-        <v>134217728</v>
+        <v>4.865603751974566</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(135281148.38640654,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(135281148.38640654, -134217727.70298904, 134217727.99999999)</t>
+          <t>(1.3215648875743151, 4.865603751974566)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A033A0070&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145E7CA0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -880,31 +880,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6202750405618613</v>
+        <v>0.1217457980861456</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2970109568053262</v>
+        <v>-536870910.6784351</v>
       </c>
       <c r="D12" t="n">
-        <v>3.320815261740754</v>
+        <v>536870911.9999999</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(110340041.03500853,)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.29701095680532624, 3.3208152617407545)</t>
+          <t>(110340041.03500853, -536870910.6784351, 536870911.99999994)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A04FCEB30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145E7520&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03826130253562762</v>
+        <v>0.0009851473372459285</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05705055254272418</v>
+        <v>23.56446811942596</v>
       </c>
       <c r="D2" t="n">
-        <v>1.158158571706212</v>
+        <v>4.284091592819699</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.43471059184562055,)</t>
+          <t>(0.1641783225274126,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.43471059184562055, -0.057050552542724176, 1.158158571706212)</t>
+          <t>(0.1641783225274126, 23.564468119425957, 4.284091592819699)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4F010&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D5450&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +1029,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04347344651380509</v>
+        <v>0.00102412487170353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.946001266365851</v>
+        <v>0.06153800564601983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4134879803294575</v>
+        <v>2603.593339464429</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.06511597380893218,)</t>
+          <t>(30.157361077434878, 3066.967929436369)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.06511597380893218, 0.946001266365851, 0.41348798032945755)</t>
+          <t>(30.157361077434878, 3066.967929436369, 0.06153800564601983, 2603.593339464429)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4D330&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D6170&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1072,27 +1072,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04924682019673106</v>
+        <v>0.001033230485506587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1775263619142491</v>
+        <v>-1.028437705771672</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2989827919907629</v>
+        <v>0.7953009319462183</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(3.466210503067912,)</t>
+          <t>(33.247417977075514,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(3.466210503067912, 0.1775263619142491, 0.29898279199076294)</t>
+          <t>(33.247417977075514, -1.0284377057716716, 0.7953009319462183)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4F9A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D66E0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +1107,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06182694999395155</v>
+        <v>0.00103496210766021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2088423727271072</v>
+        <v>-12.28462348340415</v>
       </c>
       <c r="D5" t="n">
-        <v>7.000488455745614</v>
+        <v>37.42155707148877</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(2.76995615813173, 16.516036639497596)</t>
+          <t>(0.12127659037380616,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(2.76995615813173, 16.516036639497596, 0.2088423727271072, 7.000488455745614)</t>
+          <t>(0.12127659037380616, -12.284623483404149, 37.42155707148877)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4C7C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D6A40&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +1146,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2014022650325894</v>
+        <v>0.001520164568745019</v>
       </c>
       <c r="C6" t="n">
-        <v>1.132069300797895</v>
+        <v>25.37388154978027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4737451786905832</v>
+        <v>4.566350760788675</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.2636777208051408,)</t>
+          <t>(43.71098409729081,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.2636777208051408, 1.1320693007978948, 0.4737451786905832)</t>
+          <t>(43.71098409729081, 25.373881549780272, 4.566350760788675)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4F1C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D76A0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2520919943117084</v>
+        <v>0.001537140450134553</v>
       </c>
       <c r="C7" t="n">
-        <v>1.213862328631095</v>
+        <v>25.41326536845215</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5522162963112791</v>
+        <v>4.593017475990106</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1204,12 +1204,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.2138623286310948, 0.5522162963112791)</t>
+          <t>(25.41326536845215, 4.593017475990106)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4F0D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D5390&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +1224,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2520938459294506</v>
+        <v>0.001561314981104298</v>
       </c>
       <c r="C8" t="n">
-        <v>1.213864165676394</v>
+        <v>-1305.742327296386</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5522164532053366</v>
+        <v>181.6888179620271</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(325910056.73591876,)</t>
+          <t>(1520.3659896670088,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(325910056.73591876, 1.2138641656763944, 0.5522164532053366)</t>
+          <t>(1520.3659896670088, -1305.742327296386, 181.6888179620271)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4EF20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D7880&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +1263,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2554608810879229</v>
+        <v>0.002014450415226457</v>
       </c>
       <c r="C9" t="n">
-        <v>-196.19184440263</v>
+        <v>25.34379098032331</v>
       </c>
       <c r="D9" t="n">
-        <v>25.80030366876124</v>
+        <v>3.954090164941019</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2103.9044445488253,)</t>
+          <t>(1.295822163827741,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2103.9044445488253, -196.19184440262995, 25.800303668761238)</t>
+          <t>(1.295822163827741, 25.343790980323305, 3.954090164941019)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AABF3A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D62C0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5720977901874132</v>
+        <v>0.02532783180744431</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2742848035135171</v>
+        <v>12.34297351259857</v>
       </c>
       <c r="D10" t="n">
-        <v>2.418839978243844</v>
+        <v>30.55014297231081</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.27428480351351714, 2.4188399782438443)</t>
+          <t>(12.342973512598565, 30.550142972310805)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4FE80&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D53C0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.65596706636332</v>
+        <v>0.03419017634567487</v>
       </c>
       <c r="C11" t="n">
-        <v>-134217727.7257151</v>
+        <v>12.34297351259857</v>
       </c>
       <c r="D11" t="n">
-        <v>134217727.9999999</v>
+        <v>13.07029185585359</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(142849020.88791606,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(142849020.88791606, -134217727.72571513, 134217727.99999993)</t>
+          <t>(12.342973512598565, 13.070291855853586)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AABFD30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D5900&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1380,31 +1380,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6559670746464705</v>
+        <v>0.03419017636141927</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2742848035135171</v>
+        <v>-2147483635.657027</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9395775251175776</v>
+        <v>2147483648</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(164302654.6287751,)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.27428480351351714, 0.9395775251175776)</t>
+          <t>(164302654.6287751, -2147483635.6570265, 2147483648.0)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0AA4CA00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D68F0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,31 +1490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04379176958826526</v>
+        <v>0.0002199255657245489</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06230094509983489</v>
+        <v>-10.43090991025359</v>
       </c>
       <c r="D2" t="n">
-        <v>1.110828287350279</v>
+        <v>828.4192430949171</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.5438762820089242,)</t>
+          <t>(85.81323331110184, 919.3150811099345)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.5438762820089242, -0.062300945099834894, 1.1108282873502786)</t>
+          <t>(85.81323331110184, 919.3150811099345, -10.43090991025359, 828.4192430949171)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA9E40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145ED2D0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1530,31 +1530,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04563680012881327</v>
+        <v>0.0002201027145264349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8612072278580338</v>
+        <v>-17.43370836642691</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4630469124492264</v>
+        <v>0.6852501301009301</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.18444157254306506,)</t>
+          <t>(113.4321904255921,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.18444157254306506, 0.8612072278580338, 0.4630469124492264)</t>
+          <t>(113.4321904255921, -17.433708366426913, 0.68525013010093)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA90C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EEC50&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1570,31 +1570,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05684174821356027</v>
+        <v>0.0002204533928041239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1029064131883988</v>
+        <v>-55.82346826070776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4467760256993359</v>
+        <v>115.890505784357</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(2.5154560241325044,)</t>
+          <t>(0.0627902464601911,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(2.5154560241325044, 0.10290641318839884, 0.44677602569933594)</t>
+          <t>(0.0627902464601911, -55.82346826070776, 115.89050578435698)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EAADA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145ED480&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1610,31 +1610,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05770712919305487</v>
+        <v>0.0002293023992811796</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1056453663937804</v>
+        <v>57.46886578242975</v>
       </c>
       <c r="D5" t="n">
-        <v>6021994737.291796</v>
+        <v>7.052592906549705</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(2.4706034300383406, 13238242610.431355)</t>
+          <t>(0.2067371330363384,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(2.4706034300383406, 13238242610.431355, 0.10564536639378042, 6021994737.291796)</t>
+          <t>(0.2067371330363384, 57.46886578242975, 7.052592906549705)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA8520&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146AA8C0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1650,31 +1650,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1256416763805289</v>
+        <v>0.0002672981566249528</v>
       </c>
       <c r="C6" t="n">
-        <v>1.050581130883951</v>
+        <v>60.29571602423854</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4769683121442963</v>
+        <v>7.298143435178003</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(2.8850250671270095,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(2.8850250671270095, 1.0505811308839514, 0.4769683121442963)</t>
+          <t>(60.29571602423854, 7.298143435178003)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA8640&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EF130&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1690,31 +1690,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1495231584463368</v>
+        <v>0.0002685817626460667</v>
       </c>
       <c r="C7" t="n">
-        <v>1.020160228977468</v>
+        <v>60.28662392470161</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5176879547140103</v>
+        <v>7.247655912350254</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.942352193082058,)</t>
+          <t>(145.1256051971019,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0.942352193082058, 1.0201602289774685, 0.5176879547140103)</t>
+          <t>(145.1256051971019, 60.28662392470161, 7.247655912350254)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A0A9B6B60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EF490&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1730,31 +1730,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2549365054709196</v>
+        <v>0.0002772749523750497</v>
       </c>
       <c r="C8" t="n">
-        <v>1.226760888762046</v>
+        <v>-1862.738711435533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7579710122112564</v>
+        <v>267.5924446385502</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1321.7900967498163,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.2267608887620463, 0.7579710122112564)</t>
+          <t>(1321.7900967498163, -1862.7387114355333, 267.5924446385502)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EAAC20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EF460&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1770,31 +1770,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2665108863289503</v>
+        <v>0.0003449298199980632</v>
       </c>
       <c r="C9" t="n">
-        <v>-300.0295558203825</v>
+        <v>60.49064305188079</v>
       </c>
       <c r="D9" t="n">
-        <v>38.75635105323256</v>
+        <v>6.367191836826907</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2376.1310816627447,)</t>
+          <t>(1.3222917758725072,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2376.1310816627447, -300.0295558203825, 38.756351053232564)</t>
+          <t>(1.3222917758725072, 60.49064305188079, 6.367191836826907)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA8610&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CC400&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1810,31 +1810,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4064577806101237</v>
+        <v>0.009146981368593942</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.8460878</v>
+        <v>38.95487028465651</v>
       </c>
       <c r="D10" t="n">
-        <v>134217728</v>
+        <v>47.16719671847524</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(125104060.37118883,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(125104060.37118883, -134217727.84608781, 134217727.99999999)</t>
+          <t>(38.95487028465651, 47.16719671847524)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EABAC0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EF550&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4064577807914037</v>
+        <v>0.01313749894216599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1539121809477089</v>
+        <v>38.95487028465651</v>
       </c>
       <c r="D11" t="n">
-        <v>1.072848707814337</v>
+        <v>21.34084573958203</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.15391218094770895, 1.0728487078143374)</t>
+          <t>(38.95487028465651, 21.34084573958203)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EAA860&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144F0F70&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1890,31 +1890,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.867411637568399</v>
+        <v>0.01313749900767054</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1539121809477089</v>
+        <v>-4294967257.04513</v>
       </c>
       <c r="D12" t="n">
-        <v>4.65479027390059</v>
+        <v>4294967296</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(201255720.99067447,)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.15391218094770895, 4.6547902739005895)</t>
+          <t>(201255720.99067447, -4294967257.04513, 4294967296.0)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03EA8580&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EFAF0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/gumbel_barnett/resultados.xlsx
+++ b/Imag/gumbel_barnett/resultados.xlsx
@@ -7,9 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="weak" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="moderate" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="50_weak" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="50_moderate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="50_strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="100_weak" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="100_moderate" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="100_strong" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="500_weak" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="500_moderate" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="500_strong" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="1000_weak" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="1000_moderate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="1000_strong" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="30_weak" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="30_moderate" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,31 +501,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.004738317130101841</v>
+        <v>0.02636239784835233</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.832254738507977</v>
+        <v>0.3537195390869854</v>
       </c>
       <c r="D2" t="n">
-        <v>8.745190482398661</v>
+        <v>0.3666849702203022</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.2487397042199996,)</t>
+          <t>(2.8459264488167904,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.2487397042199996, -2.832254738507977, 8.74519048239866)</t>
+          <t>(2.8459264488167904, 0.3537195390869854, 0.3666849702203022)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F6140&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD31060&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +540,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004774651028511193</v>
+        <v>0.02726168252135173</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2149354431043374</v>
+        <v>0.3566443341757235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8049418582388241</v>
+        <v>1006453.051043211</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(7.953494541081938,)</t>
+          <t>(2.8083519001774855, 2713135.3934080196)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(7.953494541081938, -0.21493544310433743, 0.8049418582388241)</t>
+          <t>(2.8083519001774855, 2713135.3934080196, 0.3566443341757235, 1006453.051043211)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CFA60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD339D0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +579,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004778021180422219</v>
+        <v>0.02982506980188073</v>
       </c>
       <c r="C4" t="n">
-        <v>5.210485959214406</v>
+        <v>0.07786181114722729</v>
       </c>
       <c r="D4" t="n">
-        <v>1.944046859896792</v>
+        <v>1.188647602681659</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.0836162388271153,)</t>
+          <t>(0.4578595752980149,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.0836162388271153, 5.210485959214406, 1.9440468598967922)</t>
+          <t>(0.4578595752980149, 0.07786181114722729, 1.1886476026816586)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CF1F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD33D00&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +618,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004803757285581362</v>
+        <v>0.03511215948941149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00873048987646027</v>
+        <v>1.101564423042087</v>
       </c>
       <c r="D5" t="n">
-        <v>112.8686525442697</v>
+        <v>0.4432637609101699</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(6.966678378467374, 120.30152149230757)</t>
+          <t>(-0.08481431781749166,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(6.966678378467374, 120.30152149230757, 0.00873048987646027, 112.8686525442697)</t>
+          <t>(-0.08481431781749166, 1.1015644230420873, 0.44326376091016995)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CEFB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD32230&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +657,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008660678639843508</v>
+        <v>0.1538601822292303</v>
       </c>
       <c r="C6" t="n">
-        <v>6.099675416511769</v>
+        <v>1.297920753603353</v>
       </c>
       <c r="D6" t="n">
-        <v>2.099821247775862</v>
+        <v>0.4885069367756243</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(13.894975884399626,)</t>
+          <t>(1.1436316437270428,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(13.894975884399626, 6.099675416511769, 2.0998212477758615)</t>
+          <t>(1.1436316437270428, 1.2979207536033535, 0.48850693677562435)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CD330&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD33100&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +696,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01030242662323945</v>
+        <v>0.1681502437977583</v>
       </c>
       <c r="C7" t="n">
-        <v>6.187168639548881</v>
+        <v>1.307659815695075</v>
       </c>
       <c r="D7" t="n">
-        <v>2.267523425242417</v>
+        <v>0.471791975278705</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(4.470204955749755,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(6.187168639548881, 2.2675234252424175)</t>
+          <t>(4.470204955749755, 1.3076598156950747, 0.471791975278705)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144E4BB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD32B00&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +735,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01035780611069875</v>
+        <v>0.3070967708351469</v>
       </c>
       <c r="C8" t="n">
-        <v>6.095089475265539</v>
+        <v>1.397279310595482</v>
       </c>
       <c r="D8" t="n">
-        <v>1.905692851729109</v>
+        <v>0.6325679027916061</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1.2414144978495245,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.2414144978495245, 6.095089475265539, 1.9056928517291087)</t>
+          <t>(1.3972793105954824, 0.6325679027916061)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CD510&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF9CAE30&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -767,27 +778,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01087175454040736</v>
+        <v>0.3300333812584361</v>
       </c>
       <c r="C9" t="n">
-        <v>-772.3542326978541</v>
+        <v>-272.0421484920577</v>
       </c>
       <c r="D9" t="n">
-        <v>102.33306067027</v>
+        <v>34.57747731963043</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2014.7529140550241,)</t>
+          <t>(2719.173993155153,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2014.7529140550241, -772.3542326978541, 102.33306067027002)</t>
+          <t>(2719.173993155153, -272.04214849205766, 34.57747731963043)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CD180&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD33130&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,17 +813,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1006191912966915</v>
+        <v>1.220483813676456</v>
       </c>
       <c r="C10" t="n">
-        <v>1.321564887574315</v>
+        <v>0.4027442837431214</v>
       </c>
       <c r="D10" t="n">
-        <v>13.04095483523907</v>
+        <v>0.9945350268523609</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -821,12 +832,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(1.3215648875743151, 13.040954835239067)</t>
+          <t>(0.4027442837431214, 0.994535026852361)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CFD90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF9CB3D0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +852,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1217457971143589</v>
+        <v>1.220483819101141</v>
       </c>
       <c r="C11" t="n">
-        <v>1.321564887574315</v>
+        <v>-67108863.59725571</v>
       </c>
       <c r="D11" t="n">
-        <v>4.865603751974566</v>
+        <v>67108863.99999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(67477628.26399833,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(1.3215648875743151, 4.865603751974566)</t>
+          <t>(67477628.26399833, -67108863.597255714, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145E7CA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD32EC0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -880,31 +891,2542 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.377194040342011</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4027442837431214</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.056795149235861</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4027442837431214, 5.056795149235861)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD33E80&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04756367154191221</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3020801872734083</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6988150669233723</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.4835247976216493,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.4835247976216493, 0.3020801872734083, 0.6988150669233723)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0194CA0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06662181332811447</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8982768190087</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2712307765053796</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.10905827244262292,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.10905827244262292, 0.8982768190087, 0.27123077650537963)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFFC0640&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06797840736157561</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4410179547473997</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2292554560649971</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.816488976060173,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.816488976060173, 0.44101795474739974, 0.2292554560649971)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFFC14B0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07138556384043353</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4438653896336873</v>
+      </c>
+      <c r="D5" t="n">
+        <v>506890.6910785764</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2.743539436724355, 2157243.132398854)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(2.743539436724355, 2157243.132398854, 0.44386538963368727, 506890.69107857643)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFFC1510&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5843372655450022</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.012405593386356</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3058917492379774</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1301420220496432,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1301420220496432, 1.0124055933863558, 0.30589174923797735)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0194AF0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6293765217290354</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.026916691627548</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2999515224487972</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(4.558187260202592,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(4.558187260202592, 1.0269166916275483, 0.29995152244879725)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0194E50&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9997647175545462</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.086711726146366</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3923837317579943</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.0867117261463661, 0.3923837317579943)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E01973A0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.039286161590343</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-101.6203396737929</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.30916229990485</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1310.456326880188,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1310.456326880188, -101.6203396737929, 14.309162299904848)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFFC31F0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.219665987075126</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4608899087817512</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.625821817364615</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4608899087817512, 0.625821817364615)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0196290&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>pareto</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>3.219666033054389</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.53911009</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(107233180.81075452,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(107233180.81075452, -67108863.539110094, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0194850&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
       <c r="B12" t="n">
-        <v>0.1217457980861456</v>
+        <v>5.390900102320605</v>
       </c>
       <c r="C12" t="n">
-        <v>-536870910.6784351</v>
+        <v>0.4608899087817512</v>
       </c>
       <c r="D12" t="n">
-        <v>536870911.9999999</v>
+        <v>2.649242361862914</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(110340041.03500853,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(110340041.03500853, -536870910.6784351, 536870911.99999994)</t>
+          <t>(0.4608899087817512, 2.649242361862914)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145E7520&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFFC1480&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.07780993741897772</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9288155277650376</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2843200871522039</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.1111018751462845,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.1111018751462845, 0.9288155277650376, 0.2843200871522039)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8E1390&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0905931697779461</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2935475791467312</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7440012679172694</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.47735504579608956,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.47735504579608956, 0.29354757914673124, 0.7440012679172694)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF856920&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1565941824057031</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4486096952794902</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.243470398450174</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.788028297321828,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.788028297321828, 0.4486096952794902, 0.24347039845017404)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8E2530&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1574882551890844</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4490272939864828</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13171116.88298957</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2.779305027134086, 53945844.38195111)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(2.779305027134086, 53945844.38195111, 0.4490272939864828, 13171116.882989567)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8E1AE0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.524400088430253</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.041886426128097</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.314486487383233</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.084066818069244,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.084066818069244, 1.0418864261280973, 0.31448648738323304)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8E1000&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5442860623042864</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.053023372354776</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2988028829040699</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(3.7970798557829166,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(3.7970798557829166, 1.053023372354776, 0.2988028829040699)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8E2020&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.112503246855123</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.127414476502532</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4225094668632285</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1274144765025316, 0.42250946686322854)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF857F40&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.145692689113603</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-106.1235526795577</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15.0481026879391</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1245.8012199019959,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1245.8012199019959, -106.12355267955769, 15.048102687939103)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8E0BB0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.124724402314512</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-67108863.52226472</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(103295387.81370182,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(103295387.81370182, -67108863.52226472, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF857D60&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.124724402367375</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4777352784787773</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6496791980237542</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.47773527847877734, 0.6496791980237542)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8571C0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.846556524437178</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4777352784787773</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.312543760639189</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.47773527847877734, 3.312543760639189)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8E21A0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1038167240149314</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9643361055532804</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2877583307556867</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.07510514819848357,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.07510514819848357, 0.9643361055532804, 0.2877583307556867)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A208E2F0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1163047322186406</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2620650402087047</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8116072623620824</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.43445107942412914,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.43445107942412914, 0.2620650402087047, 0.8116072623620824)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A058B8E0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1869970205396969</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4339061592169793</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2148517689204085</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.349895467905564,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.349895467905564, 0.4339061592169793, 0.21485176892040853)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000162DA18ED10&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.194564220709787</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4406558618369856</v>
+      </c>
+      <c r="D5" t="n">
+        <v>524362.7253552432</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(3.2114583168777857, 2354763.9204966985)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(3.2114583168777857, 2354763.9204966985, 0.4406558618369856, 524362.7253552432)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016095286980&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6034805328045825</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.078073710641456</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3158839199381551</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1396469290466977,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1396469290466977, 1.0780737106414562, 0.3158839199381551)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9E0CBB0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7038101591403737</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.097333613804896</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3166053513264439</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(5.022511816867736,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(5.022511816867736, 1.0973336138048961, 0.31660535132644385)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A22A95D0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.080812284289306</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.153637426158627</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.399967200301006</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1536374261586269, 0.39996720030100597)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160951DBD90&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.13055390759118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-103.9267903969088</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.65490020943647</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1300.888498459181,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1300.888498459181, -103.92679039690884, 14.654900209436473)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016095286050&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.692225341876022</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4709227803614171</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6827146457972098</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4709227803614171, 0.6827146457972098)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F99D2B30&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.692225355002846</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.52907722</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(98297092.5241079,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(98297092.5241079, -67108863.52907722, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A0ED1D80&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.587271354795015</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4709227803614171</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.344162274447579</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4709227803614171, 2.344162274447579)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001609CE4F040&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03209398183491061</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.002963424005803454</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.287902550220607</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.4220005061490514,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.4220005061490514, -0.002963424005803454, 1.2879025502206067)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016093263040&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03408519879193054</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2749521511425762</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25594.39562404581</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.5137217696895346, 79634.1566859402)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.5137217696895346, 79634.1566859402, 0.2749521511425762, 25594.395624045806)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A1F86A70&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03408648567809386</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2742071164881916</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3207335459910098</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.5231061327845303,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.5231061327845303, 0.2742071164881916, 0.3207335459910098)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016093262DD0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03948442440394642</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.117608712659507</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4486940026721008</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.05811862520464313,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.05811862520464313, 1.1176087126595067, 0.4486940026721008)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016093260430&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2251929546851851</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.331362496539188</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.492376364398346</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(5.5618743701296545,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(5.5618743701296545, 1.331362496539188, 0.492376364398346)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016093263910&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.249832118033782</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.341471698527811</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4913867223828632</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.183237707296203,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.183237707296203, 1.341471698527811, 0.4913867223828632)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A1F87F70&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3160022516357962</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.404189954099692</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6124021164629547</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.4041899540996916, 0.6124021164629547)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A1F86260&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3309397249747984</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-202.885087052611</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.14943461987711</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1853.5165127764208,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1853.5165127764208, -202.88508705261097, 27.149434619877105)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016093262350&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.55759689108831</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3172188651963512</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.08697108890334</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.3172188651963512, 1.0869710889033404)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A1F87820&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.557596900252472</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.68278114</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(61739327.968919285,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(61739327.968919285, -67108863.68278114, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A1F85810&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.122521671149132</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3172188651963512</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.331373667533009</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.3172188651963512, 4.3313736675330095)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A1F851B0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04839831625455752</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.069231135056067</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4123182046847806</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.047811001963763984,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.047811001963763984, 1.0692311350560666, 0.4123182046847806)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016300BCB580&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05310157675797996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.01664770989171664</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.241130002589522</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.400515033770094,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.400515033770094, -0.016647709891716638, 1.2411300025895216)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001609524BF70&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07221327731359883</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2595984514882342</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28021640154536</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.8130361214641124,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.8130361214641124, 0.2595984514882342, 0.28021640154536004)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016095249240&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1399751396918779</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.05021124037894874</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.691893964259201</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(5.802543708612042, 34.911265097554434)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(5.802543708612042, 34.911265097554434, -0.050211240378948745, 9.6918939642592)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001609524A4A0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2417192096600449</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.254615451052809</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4364252794487358</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(4.949929447490584,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(4.949929447490584, 1.2546154510528091, 0.43642527944873577)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001630084FE80&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2999877667980344</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.281685473362198</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4456329077653474</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.1772079868154681,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.1772079868154681, 1.281685473362198, 0.44563290776534736)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016300BCB940&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4166106265818436</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.328070188712748</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5591329410873951</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3280701887127484, 0.5591329410873951)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001630084C7F0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4462405371712854</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-175.8338902283548</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.83126493925209</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1693.056957768185,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1693.056957768185, -175.83389022835485, 23.831264939252087)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001609524ADA0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.995917031370612</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3329252637925101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9951449249202382</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.33292526379251014, 0.9951449249202382)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160A2220640&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.995917048682277</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.66707473</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(67436273.06945805,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(67436273.06945805, -67108863.66707473, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001630084D7B0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.823068950809825</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3329252637925101</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.388195863318796</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.33292526379251014, 4.388195863318796)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000016095248280&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +3512,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0009851473372459285</v>
+        <v>0.04151861939982145</v>
       </c>
       <c r="C2" t="n">
-        <v>23.56446811942596</v>
+        <v>0.1067198541140443</v>
       </c>
       <c r="D2" t="n">
-        <v>4.284091592819699</v>
+        <v>1.095634220855312</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.1641783225274126,)</t>
+          <t>(0.4612999647717096,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.1641783225274126, 23.564468119425957, 4.284091592819699)</t>
+          <t>(0.4612999647717096, 0.10671985411404429, 1.0956342208553125)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D5450&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DD367820&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +3551,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00102412487170353</v>
+        <v>0.04238952513108227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06153800564601983</v>
+        <v>1.047522567598614</v>
       </c>
       <c r="D3" t="n">
-        <v>2603.593339464429</v>
+        <v>0.4081870569176507</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(30.157361077434878, 3066.967929436369)</t>
+          <t>(-0.09711878536990753,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(30.157361077434878, 3066.967929436369, 0.06153800564601983, 2603.593339464429)</t>
+          <t>(-0.09711878536990753, 1.0475225675986137, 0.4081870569176507)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D6170&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DD365B40&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1072,27 +3594,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001033230485506587</v>
+        <v>0.05383851402237967</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.028437705771672</v>
+        <v>0.3345299388022936</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7953009319462183</v>
+        <v>0.3320681132037299</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(33.247417977075514,)</t>
+          <t>(2.985288604813842,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(33.247417977075514, -1.0284377057716716, 0.7953009319462183)</t>
+          <t>(2.985288604813842, 0.33452993880229365, 0.33206811320372986)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D66E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DD364820&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +3629,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00103496210766021</v>
+        <v>0.1003690916962028</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.28462348340415</v>
+        <v>0.08942790030664675</v>
       </c>
       <c r="D5" t="n">
-        <v>37.42155707148877</v>
+        <v>12.18525767559017</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.12127659037380616,)</t>
+          <t>(4.590637156276596, 40.50754580256232)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.12127659037380616, -12.284623483404149, 37.42155707148877)</t>
+          <t>(4.590637156276596, 40.50754580256232, 0.08942790030664675, 12.185257675590165)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D6A40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DD3676A0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1150,27 +3672,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001520164568745019</v>
+        <v>0.2409887547067835</v>
       </c>
       <c r="C6" t="n">
-        <v>25.37388154978027</v>
+        <v>1.230275073824146</v>
       </c>
       <c r="D6" t="n">
-        <v>4.566350760788675</v>
+        <v>0.4254296633824477</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(43.71098409729081,)</t>
+          <t>(3.9787766949318115,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(43.71098409729081, 25.373881549780272, 4.566350760788675)</t>
+          <t>(3.9787766949318115, 1.2302750738241457, 0.4254296633824477)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D76A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DD3642E0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +3707,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001537140450134553</v>
+        <v>0.267823130668252</v>
       </c>
       <c r="C7" t="n">
-        <v>25.41326536845215</v>
+        <v>1.254853738682966</v>
       </c>
       <c r="D7" t="n">
-        <v>4.593017475990106</v>
+        <v>0.4564119609904724</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1.1438203163966159,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(25.41326536845215, 4.593017475990106)</t>
+          <t>(1.1438203163966159, 1.2548537386829661, 0.4564119609904724)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D5390&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DD367940&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +3746,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001561314981104298</v>
+        <v>0.4356982568606089</v>
       </c>
       <c r="C8" t="n">
-        <v>-1305.742327296386</v>
+        <v>1.325852630678524</v>
       </c>
       <c r="D8" t="n">
-        <v>181.6888179620271</v>
+        <v>0.6008916126145675</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1520.3659896670088,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1520.3659896670088, -1305.742327296386, 181.6888179620271)</t>
+          <t>(1.3258526306785239, 0.6008916126145675)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D7880&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DD365FF0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +3785,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002014450415226457</v>
+        <v>0.4681856782441922</v>
       </c>
       <c r="C9" t="n">
-        <v>25.34379098032331</v>
+        <v>-170.1513340052105</v>
       </c>
       <c r="D9" t="n">
-        <v>3.954090164941019</v>
+        <v>23.62940423595563</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1.295822163827741,)</t>
+          <t>(1418.1364397490197,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.295822163827741, 25.343790980323305, 3.954090164941019)</t>
+          <t>(1418.1364397490197, -170.15133400521051, 23.629404235955633)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D62C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF412080&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,17 +3824,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02532783180744431</v>
+        <v>1.643536469319232</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34297351259857</v>
+        <v>0.368897640793924</v>
       </c>
       <c r="D10" t="n">
-        <v>30.55014297231081</v>
+        <v>0.9569549898845999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +3843,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(12.342973512598565, 30.550142972310805)</t>
+          <t>(0.36889764079392395, 0.9569549898845999)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D53C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF4134F0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +3863,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03419017634567487</v>
+        <v>1.64353648158879</v>
       </c>
       <c r="C11" t="n">
-        <v>12.34297351259857</v>
+        <v>-67108863.63110236</v>
       </c>
       <c r="D11" t="n">
-        <v>13.07029185585359</v>
+        <v>67108864</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(70127503.65566646,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(12.342973512598565, 13.070291855853586)</t>
+          <t>(70127503.65566646, -67108863.63110236, 67108864.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D5900&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF411A50&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1380,31 +3902,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03419017636141927</v>
+        <v>2.862916535228461</v>
       </c>
       <c r="C12" t="n">
-        <v>-2147483635.657027</v>
+        <v>0.368897640793924</v>
       </c>
       <c r="D12" t="n">
-        <v>2147483648</v>
+        <v>4.849443034703649</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(164302654.6287751,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(164302654.6287751, -2147483635.6570265, 2147483648.0)</t>
+          <t>(0.36889764079392395, 4.849443034703649)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145D68F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF412D70&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1490,37 +4012,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002199255657245489</v>
+        <v>0.05182924381880109</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.43090991025359</v>
+        <v>0.07619444256860508</v>
       </c>
       <c r="D2" t="n">
-        <v>828.4192430949171</v>
+        <v>1.109661691933836</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(85.81323331110184, 919.3150811099345)</t>
+          <t>(0.4382950127165036,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(85.81323331110184, 919.3150811099345, -10.43090991025359, 828.4192430949171)</t>
+          <t>(0.4382950127165036, 0.07619444256860508, 1.1096616919338358)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145ED2D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE0F40&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1534,33 +4055,32 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0002201027145264349</v>
+        <v>0.05944983675408898</v>
       </c>
       <c r="C3" t="n">
-        <v>-17.43370836642691</v>
+        <v>0.2979704202564038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6852501301009301</v>
+        <v>0.2933029080079064</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(113.4321904255921,)</t>
+          <t>(3.4065347927858998,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(113.4321904255921, -17.433708366426913, 0.68525013010093)</t>
+          <t>(3.4065347927858998, 0.2979704202564038, 0.29330290800790637)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EEC50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE0790&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1570,37 +4090,36 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0002204533928041239</v>
+        <v>0.06155192482213694</v>
       </c>
       <c r="C4" t="n">
-        <v>-55.82346826070776</v>
+        <v>1.036053796662474</v>
       </c>
       <c r="D4" t="n">
-        <v>115.890505784357</v>
+        <v>0.3977396450893848</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.0627902464601911,)</t>
+          <t>(-0.07435233788482318,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.0627902464601911, -55.82346826070776, 115.89050578435698)</t>
+          <t>(-0.07435233788482318, 1.0360537966624737, 0.39773964508938475)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145ED480&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE08B0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>#377eb8</t>
@@ -1610,37 +4129,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002293023992811796</v>
+        <v>0.156179758047689</v>
       </c>
       <c r="C5" t="n">
-        <v>57.46886578242975</v>
+        <v>-0.03101793805218415</v>
       </c>
       <c r="D5" t="n">
-        <v>7.052592906549705</v>
+        <v>9.674807314939944</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.2067371330363384,)</t>
+          <t>(5.593979902513891, 35.05682626156404)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.2067371330363384, 57.46886578242975, 7.052592906549705)</t>
+          <t>(5.593979902513891, 35.05682626156404, -0.031017938052184148, 9.674807314939944)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146AA8C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE0B80&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>#4daf4a</t>
@@ -1650,37 +4168,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002672981566249528</v>
+        <v>0.2624882140275376</v>
       </c>
       <c r="C6" t="n">
-        <v>60.29571602423854</v>
+        <v>1.210478939645414</v>
       </c>
       <c r="D6" t="n">
-        <v>7.298143435178003</v>
+        <v>0.4450927454161457</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1.1916649121689546,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(60.29571602423854, 7.298143435178003)</t>
+          <t>(1.1916649121689546, 1.2104789396454136, 0.44509274541614574)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EF130&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE18D0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>#984ea3</t>
@@ -1694,33 +4211,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002685817626460667</v>
+        <v>0.3360806851671426</v>
       </c>
       <c r="C7" t="n">
-        <v>60.28662392470161</v>
+        <v>1.229091895819861</v>
       </c>
       <c r="D7" t="n">
-        <v>7.247655912350254</v>
+        <v>0.4451547094719276</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(145.1256051971019,)</t>
+          <t>(5.626283911521461,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(145.1256051971019, 60.28662392470161, 7.247655912350254)</t>
+          <t>(5.626283911521461, 1.2290918958198613, 0.4451547094719276)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EF490&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE00A0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>#ff7f00</t>
@@ -1730,37 +4246,36 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002772749523750497</v>
+        <v>0.4357351096770523</v>
       </c>
       <c r="C8" t="n">
-        <v>-1862.738711435533</v>
+        <v>1.297122938427015</v>
       </c>
       <c r="D8" t="n">
-        <v>267.5924446385502</v>
+        <v>0.5541636648932046</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1321.7900967498163,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1321.7900967498163, -1862.7387114355333, 267.5924446385502)</t>
+          <t>(1.297122938427015, 0.5541636648932046)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EF460&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFD6F3A0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>#ffff33</t>
@@ -1770,37 +4285,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0003449298199980632</v>
+        <v>0.4513183438529636</v>
       </c>
       <c r="C9" t="n">
-        <v>60.49064305188079</v>
+        <v>-148.5443332017158</v>
       </c>
       <c r="D9" t="n">
-        <v>6.367191836826907</v>
+        <v>20.74772203750106</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1.3222917758725072,)</t>
+          <t>(1369.8330140408016,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.3222917758725072, 60.49064305188079, 6.367191836826907)</t>
+          <t>(1369.8330140408016, -148.5443332017158, 20.747722037501063)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2146CC400&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE1330&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>#a65628</t>
@@ -1810,17 +4324,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.009146981368593942</v>
+        <v>1.768215491909545</v>
       </c>
       <c r="C10" t="n">
-        <v>38.95487028465651</v>
+        <v>0.3305687062438089</v>
       </c>
       <c r="D10" t="n">
-        <v>47.16719671847524</v>
+        <v>0.9665542321832061</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1829,18 +4343,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(38.95487028465651, 47.16719671847524)</t>
+          <t>(0.3305687062438089, 0.9665542321832061)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EF550&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE3F10&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>#f781bf</t>
@@ -1850,37 +4363,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01313749894216599</v>
+        <v>1.768215508427604</v>
       </c>
       <c r="C11" t="n">
-        <v>38.95487028465651</v>
+        <v>-67108863.66943129</v>
       </c>
       <c r="D11" t="n">
-        <v>21.34084573958203</v>
+        <v>67108863.99999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(69431039.2165278,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(38.95487028465651, 21.34084573958203)</t>
+          <t>(69431039.2165278, -67108863.66943129, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144F0F70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE0910&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -1890,37 +4402,3036 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.660849486589814</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3305687062438089</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.311332073360152</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.3305687062438089, 4.311332073360152)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDE1000&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05097615500750194</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2228605024870239</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9420482321963043</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.4777636246770602,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.4777636246770602, 0.2228605024870239, 0.9420482321963043)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E03416C0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06292115138107364</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.027209366481272</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3608007507619345</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.10995521474435797,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.10995521474435797, 1.0272093664812725, 0.36080075076193446)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0342F20&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0707655282461073</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4129756457845872</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3044168249244974</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.843299965991989,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.843299965991989, 0.41297564578458723, 0.3044168249244974)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0342350&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2192580262339574</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.009399349721798352</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.66782580020833</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(6.261827310241295, 80.79878498757584)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(6.261827310241295, 80.79878498757584, 0.009399349721798352, 17.667825800208334)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0341840&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3825564663981771</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.193470460326749</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3910507105804856</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(4.241538453110709,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(4.241538453110709, 1.1934704603267487, 0.39105071058048557)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0342F80&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.38733294429193</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.185534445415174</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4045299576317583</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.114609006673922,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.114609006673922, 1.1855344454151737, 0.4045299576317583)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0343460&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6509683012075783</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.278522514726314</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5317119923463193</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.2785225147263135, 0.5317119923463193)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0340EE0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6728970014162881</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-220.1758169222267</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.15900527728317</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2603.1250492068084,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2603.1250492068084, -220.17581692222666, 28.15900527728317)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E001C1F0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>pareto</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>1.884847902501544</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-268435455.5495324</v>
+      </c>
+      <c r="D10" t="n">
+        <v>268435456</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(324175894.47719884,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(324175894.47719884, -268435455.54953244, 268435455.99999997)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0341CC0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.884847968364409</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4504675558235471</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8280549589027664</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.4504675558235471, 0.8280549589027664)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0343EE0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
       <c r="B12" t="n">
-        <v>0.01313749900767054</v>
+        <v>3.799956209815884</v>
       </c>
       <c r="C12" t="n">
-        <v>-4294967257.04513</v>
+        <v>0.4504675558235471</v>
       </c>
       <c r="D12" t="n">
-        <v>4294967296</v>
+        <v>4.845514153101794</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(201255720.99067447,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(201255720.99067447, -4294967257.04513, 4294967296.0)</t>
+          <t>(0.4504675558235471, 4.845514153101794)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2145EFAF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E0340790&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.03106153116908797</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.222279898493915</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9382340005090749</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.47223938014880723,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.47223938014880723, 0.222279898493915, 0.9382340005090749)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFDC6230&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.03318890726438837</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.023139927667693</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3539833917760971</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.11374683152115855,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.11374683152115855, 1.0231399276676933, 0.35398339177609706)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE24D60&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06879921598274942</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3559791680785656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7670118274443.93</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.5201553749955705, 29663040237269.2)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.5201553749955705, 29663040237269.2, 0.35597916807856556, 7670118274443.93)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E071D900&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07234731764017738</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3646135762376311</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2734481738000216</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(3.315907096858976,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(3.315907096858976, 0.36461357623763113, 0.27344817380002157)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE24580&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3892016960948507</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.185397346863683</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3847785831755159</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(4.204751251792798,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(4.204751251792798, 1.1853973468636834, 0.38477858317551594)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE26B30&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4181525324880163</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.194367554904632</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4046599068161827</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.144229179828773,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.144229179828773, 1.1943675549046324, 0.4046599068161827)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE24E20&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.6724289695327669</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.271343949609889</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.523877439278623</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.2713439496098893, 0.523877439278623)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE259C0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7071296630847087</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-174.2202685732932</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.24385395559299</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1901.5294920105102,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1901.5294920105102, -174.2202685732932, 23.24385395559299)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E071D9C0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.354729049878495</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.6155628</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(151332394.72500455,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(151332394.72500455, -134217727.61556284, 134217728.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE264A0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.354729063702722</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3844371617446845</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8869067878652048</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.38443716174468445, 0.8869067878652048)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE25690&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.382026551090971</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3844371617446845</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.750078911433448</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.38443716174468445, 3.750078911433448)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE243A0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06180157997516259</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1861091368649508</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9848495633959468</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.45675140482630455,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.45675140482630455, 0.1861091368649508, 0.9848495633959468)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE31030&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06433774824390283</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3873001447664501</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3528.324861131253</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.108333738925948, 12310.435332769834)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.108333738925948, 12310.435332769834, 0.38730014476645014, 3528.324861131253)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFEAB7F0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06439754060544688</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3871332597186855</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2860748493545032</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.1140643708690767,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.1140643708690767, 0.3871332597186855, 0.2860748493545032)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE31F90&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.08141972142430572</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.033590885634768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3660083579480009</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.08508996565228664,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.08508996565228664, 1.0335908856347678, 0.3660083579480009)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE309A0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3849469678213573</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.210846963798185</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4188616939918908</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.2202696667359036,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.2202696667359036, 1.210846963798185, 0.41886169399189077)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFEABA00&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4355547156581072</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.222168498311683</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4255253690127174</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(6.522091533553398,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(6.522091533553398, 1.2221684983116834, 0.4255253690127174)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFEABBB0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5392998086506808</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.277991787909323</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5106672263402607</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.2779917879093228, 0.5106672263402607)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFEAB730&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5515574230939372</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-137.2801116093922</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.20365025599745</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1360.2843979512159,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1360.2843979512159, -137.28011160939218, 19.203650255997445)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFE30CA0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.883076892614004</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4303407371403642</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8476510507689585</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4303407371403642, 0.8476510507689585)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFEABC10&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.883076908103468</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.56965926</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(79170390.34307654,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(79170390.34307654, -67108863.56965926, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFEAA440&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.854870607453172</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4303407371403642</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.395051277853976</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4303407371403642, 3.395051277853976)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DFEAA4A0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04598148682245908</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9059649126635827</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2806289796744956</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.11390681429072853,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.11390681429072853, 0.9059649126635827, 0.2806289796744956)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DD31BEE0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0477505443695968</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.275468634567669</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7386736363940269</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.4753733908868484,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.4753733908868484, 0.275468634567669, 0.738673636394027)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A37F0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1099934304099037</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4050335074825208</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2272429580347606</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.071062770955975,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.071062770955975, 0.40503350748252076, 0.22724295803476055)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A3580&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2154179696623034</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4182893978235664</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.648293470014731</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2.3833587659380067, 17.203977500694762)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(2.3833587659380067, 17.203977500694762, 0.41828939782356644, 5.648293470014731)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A2620&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6163097365037912</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.032862798024839</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2997374886142284</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(4.014383541040779,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(4.014383541040779, 1.0328627980248395, 0.2997374886142284)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A3D90&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6471616112548579</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.034015293670246</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3159010305699943</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.112149842677828,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.112149842677828, 1.0340152936702465, 0.3159010305699943)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A2BF0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.054756339891905</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.102912601423816</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4212738467709503</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1029126014238155, 0.4212738467709503)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A2200&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.106622733105559</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-184.6983312379957</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.36222331602264</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2844.471842979641,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2844.471842979641, -184.69833123799572, 23.362223316022636)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A39D0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.513195551130586</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.5774914</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(197261814.6036645,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(197261814.6036645, -134217727.5774914, 134217728.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A3820&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.513195578849367</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.422508602342229</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6804039990815866</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.422508602342229, 0.6804039990815866)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A2770&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.81733049887698</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.422508602342229</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.349707717898338</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.422508602342229, 3.3497077178983377)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E02A2170&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1129343504839739</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4036923900246864</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2260883143893205</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(3.2624880561744356,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(3.2624880561744356, 0.4036923900246864, 0.22608831438932053)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FB040&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.123576001742965</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2364933057171788</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8198075185517743</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.44515341459929275,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.44515341459929275, 0.2364933057171788, 0.8198075185517743)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FB160&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1261620198680806</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4194299402874738</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.958382095044198</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.7326412586825324, 23.563519646025057)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.7326412586825324, 23.563519646025057, 0.4194299402874738, 6.958382095044198)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FB8B0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1536864508187753</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9441277972499541</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2976658361629992</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.08019697524361921,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.08019697524361921, 0.9441277972499541, 0.29766583616299924)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FAA70&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5456252688584065</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.072139380067427</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3283044956323201</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1420966719655072,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1420966719655072, 1.0721393800674273, 0.3283044956323201)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FB2B0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5582675984161305</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.087328979061593</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3278175234914296</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(5.158285472585247,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(5.158285472585247, 1.0873289790615928, 0.32781752349142956)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FACE0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7328784191567042</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.141299889609652</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4189265918578637</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.141299889609652, 0.4189265918578637)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5EACE0&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7836357640151502</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-129.7632751279915</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.62004337754986</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1685.4815579862443,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1685.4815579862443, -129.7632751279915, 17.620043377549862)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FA200&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.999395591048462</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4325710999040185</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7087287897056336</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4325710999040185, 0.7087287897056336)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FA740&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.999395653262948</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-33554431.5674289</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33554432</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(47344531.345013484,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(47344531.345013484, -33554431.5674289, 33554432.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FAE60&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.639802246548512</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4325710999040185</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.079404444594775</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4325710999040185, 3.0794044445947746)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF5FB310&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0703627112407537</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2287229997598856</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8667211706113856</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.436153080036853,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.436153080036853, 0.22872299975988564, 0.8667211706113856)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C94E0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.07501494024893965</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9789738013162506</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3091728115577046</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.07303492617120529,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.07303492617120529, 0.9789738013162506, 0.3091728115577046)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C9030&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.09408438509405784</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4117903718520822</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2311275246588488</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.33043199572034,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.33043199572034, 0.4117903718520822, 0.2311275246588488)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C9690&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09635789616242373</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4153740173034896</v>
+      </c>
+      <c r="D5" t="n">
+        <v>331444.7169641076</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(3.2585302837465324, 1407437.6006279946)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(3.2585302837465324, 1407437.6006279946, 0.41537401730348955, 331444.7169641076)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C99F0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4549370017374406</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.109624737876273</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3347536060652497</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.122251914955017,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.122251914955017, 1.1096247378762727, 0.33475360606524973)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C92D0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.462909795909916</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.119087037095789</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3316918048297942</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(4.6342233944954145,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(4.6342233944954145, 1.1190870370957886, 0.3316918048297942)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10CA230&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8083612288972071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.181542091280045</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4302494459335652</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1815420912800454, 0.4302494459335652)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10CA140&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8373504116085586</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-150.1441797006247</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.86834120467478</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2031.5901084182788,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2031.5901084182788, -150.1441797006247, 19.868341204674778)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E1056290&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.202217475299182</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-67108863.55376139</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(91266893.12140389,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(91266893.12140389, -67108863.55376139, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C94B0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.202217489895519</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4462386106569159</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7353034806231294</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.44623861065691595, 0.7353034806231294)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E10C9A50&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.569764663515127</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4462386106569159</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.997406405053392</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.44623861065691595, 2.997406405053392)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E1054310&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
